--- a/002.xlsx
+++ b/002.xlsx
@@ -14,9 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34B434"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>客服</t>
     </r>
     <r>
@@ -44,6 +51,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF34B434"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>QQ/</t>
     </r>
     <r>
@@ -64,7 +78,7 @@
     <t>关键字</t>
   </si>
   <si>
-    <t>品牌</t>
+    <t>53账号</t>
   </si>
   <si>
     <t>撒旦法</t>
@@ -79,6 +93,9 @@
     <t>巅峰大赛</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>bote53kf08@163.com</t>
   </si>
   <si>
@@ -94,6 +111,9 @@
     <t>手机百度移动</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>bote53kf01@163.com</t>
   </si>
   <si>
@@ -109,7 +129,7 @@
     <t>快乐柠檬</t>
   </si>
   <si>
-    <t>项目2部</t>
+    <t>B</t>
   </si>
   <si>
     <t>BaiduPC</t>
@@ -118,7 +138,7 @@
     <t>喜茶</t>
   </si>
   <si>
-    <t>项目4部</t>
+    <t>O</t>
   </si>
   <si>
     <t>daifeikf4@163.com</t>
@@ -164,9 +184,6 @@
   </si>
   <si>
     <t>卡旺卡</t>
-  </si>
-  <si>
-    <t>项目1部</t>
   </si>
 </sst>
 </file>
@@ -174,8 +191,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -202,9 +219,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,21 +280,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,16 +325,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,86 +347,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,25 +378,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,157 +534,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,80 +569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -648,155 +591,229 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,7 +1172,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1167,7 +1184,7 @@
     <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="22.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:9">
@@ -1199,7 +1216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1221,154 +1238,154 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>51705740</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/002.xlsx
+++ b/002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <r>
       <rPr>
@@ -81,109 +81,150 @@
     <t>53账号</t>
   </si>
   <si>
+    <t>ditiezhankf06@163.com</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <r>
+      <t>北京市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动手机卡上网出口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
     <t>撒旦法</t>
   </si>
   <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>水电费多少</t>
-  </si>
-  <si>
-    <t>巅峰大赛</t>
+    <t>百度移动</t>
+  </si>
+  <si>
+    <t>张亮麻辣烫</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>bote53kf06@163.com</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>安徽省合肥市(移动手机卡上网全省共用出口)[移通]</t>
+  </si>
+  <si>
+    <t>360移动</t>
+  </si>
+  <si>
+    <t>卡旺卡</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>北京市(移动手机卡上网出口)[移通]</t>
+  </si>
+  <si>
+    <r>
+      <t>百度移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>张亮麻辣烫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43434</t>
+    </r>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>SEO优化</t>
+  </si>
+  <si>
+    <r>
+      <t>卡旺卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2332323</t>
+    </r>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>bote53kf08@163.com</t>
-  </si>
-  <si>
-    <t>四川省</t>
-  </si>
-  <si>
-    <t>四川省成都市[联通]</t>
-  </si>
-  <si>
-    <t>18111230603</t>
-  </si>
-  <si>
-    <t>手机百度移动</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>bote53kf01@163.com</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>北京市[联通]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15927822752 </t>
-  </si>
-  <si>
-    <t>快乐柠檬</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>BaiduPC</t>
-  </si>
-  <si>
-    <t>喜茶</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>daifeikf4@163.com</t>
-  </si>
-  <si>
-    <t>湖北省</t>
-  </si>
-  <si>
-    <t>湖北省武汉市(移动手机卡上网全省共用出口)[移通]</t>
-  </si>
-  <si>
-    <t>13871132276</t>
-  </si>
-  <si>
-    <t>百度移动</t>
-  </si>
-  <si>
-    <t>兰芳园</t>
-  </si>
-  <si>
-    <t>ditiezhankf06@163.com</t>
-  </si>
-  <si>
-    <t>北京市(移动手机卡上网出口)[移通]</t>
-  </si>
-  <si>
-    <t>13716904903</t>
-  </si>
-  <si>
-    <t>张亮麻辣烫</t>
-  </si>
-  <si>
-    <t>bote53kf06@163.com</t>
-  </si>
-  <si>
-    <t>安徽省</t>
-  </si>
-  <si>
-    <t>安徽省合肥市(移动手机卡上网全省共用出口)[移通]</t>
-  </si>
-  <si>
-    <t>15855189596</t>
-  </si>
-  <si>
-    <t>卡旺卡</t>
+    <t>1363232154</t>
+  </si>
+  <si>
+    <t>卡旺卡阿斯蒂芬</t>
   </si>
 </sst>
 </file>
@@ -192,11 +233,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -219,15 +260,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF393939"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF393939"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,47 +313,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,9 +344,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,26 +375,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -362,6 +414,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -378,49 +437,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,133 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,41 +631,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,13 +655,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +694,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -672,155 +731,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1169,18 +1232,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <pane xSplit="28485" topLeftCell="K1" activePane="topLeft"/>
+      <selection activeCell="G15" sqref="G15"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="20.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="26.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="56.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="44.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="25.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="22.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -1216,177 +1282,309 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2">
+        <v>13716904901</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3">
-        <v>65465</v>
-      </c>
-      <c r="G3">
-        <v>12122</v>
+        <v>1585518951</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4">
+        <v>137169041</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" s="5"/>
+      <c r="E5">
+        <v>1585518932</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>51705740</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="4"/>
+      <c r="E8"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="4"/>
+      <c r="E10"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="4"/>
+      <c r="E12"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="4"/>
+      <c r="E14"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="4"/>
+      <c r="E16"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="4"/>
+      <c r="E18"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="4"/>
+      <c r="E20"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="4"/>
+      <c r="E22"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="4"/>
+      <c r="E24"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="4"/>
+      <c r="E26"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="4"/>
+      <c r="E28"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="4"/>
+      <c r="E30"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="4"/>
+      <c r="E32"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="4"/>
+      <c r="E34"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="4"/>
+      <c r="E36"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="4"/>
+      <c r="E38"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="4"/>
+      <c r="E40"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="D42" s="4"/>
+      <c r="E42"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="D44" s="4"/>
+      <c r="E44"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="4:6">
+      <c r="D46" s="4"/>
+      <c r="E46"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="4:6">
+      <c r="D48" s="4"/>
+      <c r="E48"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="D50" s="4"/>
+      <c r="E50"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="D52" s="4"/>
+      <c r="E52"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/002.xlsx
+++ b/002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <r>
       <rPr>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>北京市</t>
     </r>
     <r>
@@ -166,76 +172,16 @@
   <si>
     <t>G</t>
   </si>
-  <si>
-    <t>北京市(移动手机卡上网出口)[移通]</t>
-  </si>
-  <si>
-    <r>
-      <t>百度移动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>张亮麻辣烫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>43434</t>
-    </r>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>SEO优化</t>
-  </si>
-  <si>
-    <r>
-      <t>卡旺卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2332323</t>
-    </r>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>1363232154</t>
-  </si>
-  <si>
-    <t>卡旺卡阿斯蒂芬</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -284,8 +230,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,130 +343,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,11 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,6 +603,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,45 +666,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -719,160 +674,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -883,7 +829,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1236,7 +1181,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="28485" topLeftCell="K1" activePane="topLeft"/>
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B11" sqref="B11"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -1333,78 +1278,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
+    <row r="4" spans="4:8">
       <c r="D4" s="4"/>
-      <c r="E4">
-        <v>137169041</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="E4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="4:8">
       <c r="D5" s="5"/>
-      <c r="E5">
-        <v>1585518932</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="3"/>
-      <c r="C6"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6"/>
+      <c r="E6"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" s="4"/>
-      <c r="E8"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="4:4">
@@ -1412,7 +1310,6 @@
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="4"/>
-      <c r="E10"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="4:4">
@@ -1420,7 +1317,6 @@
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="4"/>
-      <c r="E12"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="4:4">
@@ -1428,7 +1324,6 @@
     </row>
     <row r="14" spans="4:6">
       <c r="D14" s="4"/>
-      <c r="E14"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="4:4">
@@ -1436,7 +1331,6 @@
     </row>
     <row r="16" spans="4:6">
       <c r="D16" s="4"/>
-      <c r="E16"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="4:4">
@@ -1444,7 +1338,6 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="4"/>
-      <c r="E18"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="4:4">
@@ -1452,7 +1345,6 @@
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="4"/>
-      <c r="E20"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="4:4">
@@ -1460,7 +1352,6 @@
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="4"/>
-      <c r="E22"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="4:4">
@@ -1468,7 +1359,6 @@
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="4"/>
-      <c r="E24"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="4:4">
@@ -1476,7 +1366,6 @@
     </row>
     <row r="26" spans="4:6">
       <c r="D26" s="4"/>
-      <c r="E26"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="4:4">
@@ -1484,7 +1373,6 @@
     </row>
     <row r="28" spans="4:6">
       <c r="D28" s="4"/>
-      <c r="E28"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="4:4">
@@ -1492,7 +1380,6 @@
     </row>
     <row r="30" spans="4:6">
       <c r="D30" s="4"/>
-      <c r="E30"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="4:4">
@@ -1500,7 +1387,6 @@
     </row>
     <row r="32" spans="4:6">
       <c r="D32" s="4"/>
-      <c r="E32"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="4:4">
@@ -1508,7 +1394,6 @@
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="4"/>
-      <c r="E34"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="4:4">
@@ -1516,7 +1401,6 @@
     </row>
     <row r="36" spans="4:6">
       <c r="D36" s="4"/>
-      <c r="E36"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="4:4">
@@ -1524,7 +1408,6 @@
     </row>
     <row r="38" spans="4:6">
       <c r="D38" s="4"/>
-      <c r="E38"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="4:4">
@@ -1532,7 +1415,6 @@
     </row>
     <row r="40" spans="4:6">
       <c r="D40" s="4"/>
-      <c r="E40"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="4:4">
@@ -1540,7 +1422,6 @@
     </row>
     <row r="42" spans="4:6">
       <c r="D42" s="4"/>
-      <c r="E42"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="4:4">
@@ -1548,7 +1429,6 @@
     </row>
     <row r="44" spans="4:6">
       <c r="D44" s="4"/>
-      <c r="E44"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="4:4">
@@ -1556,7 +1436,6 @@
     </row>
     <row r="46" spans="4:6">
       <c r="D46" s="4"/>
-      <c r="E46"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="4:4">
@@ -1564,7 +1443,6 @@
     </row>
     <row r="48" spans="4:6">
       <c r="D48" s="4"/>
-      <c r="E48"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="4:4">
@@ -1572,7 +1450,6 @@
     </row>
     <row r="50" spans="4:6">
       <c r="D50" s="4"/>
-      <c r="E50"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="4:4">
@@ -1580,7 +1457,6 @@
     </row>
     <row r="52" spans="4:6">
       <c r="D52" s="4"/>
-      <c r="E52"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="4:4">

--- a/002.xlsx
+++ b/002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -178,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -223,74 +223,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,17 +260,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,13 +336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -351,7 +352,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -383,19 +383,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,145 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +574,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,35 +622,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +657,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -677,148 +677,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,7 +1181,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="28485" topLeftCell="K1" activePane="topLeft"/>
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -1278,32 +1278,140 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="4:8">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="4"/>
-      <c r="E4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="4:8">
-      <c r="D5" s="5"/>
-      <c r="E5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="4:6">
+      <c r="E4">
+        <v>13716904945</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5">
+        <v>13716904656</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6">
+        <v>13716904923</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7">
+        <v>13716904978</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="F8" s="3"/>
+      <c r="E8">
+        <v>13716904922</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="5"/>
